--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_19_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_19_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.283142970847697, 4.880979205710107]</t>
+          <t>[4.293309519804004, 4.8708126567538]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.06373125273900238, 0.4053838110364665]</t>
+          <t>[0.06370826824749276, 0.4054067955279761]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.008212595909681042</v>
+        <v>0.008220583370867285</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008212595909681042</v>
+        <v>0.008220583370867285</v>
       </c>
       <c r="W2" t="n">
         <v>23.41549549549617</v>
